--- a/csv/ldaqda/ldaqda_pc15_perfs.xlsx
+++ b/csv/ldaqda/ldaqda_pc15_perfs.xlsx
@@ -114,16 +114,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.17592592592592593</v>
+        <v>0.16203703703703703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10041067934611822</v>
+        <v>0.040887781788554844</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33333333333333337</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07453559924999298</v>
+        <v>0.09582326839255743</v>
       </c>
     </row>
   </sheetData>
@@ -220,13 +220,13 @@
         <v>30.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
         <v>3.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -240,16 +240,16 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -337,7 +337,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -352,7 +352,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="3">
@@ -363,13 +363,13 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -383,22 +383,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -415,13 +415,13 @@
         <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -435,16 +435,16 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -452,7 +452,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -467,7 +467,7 @@
         <v>2.0</v>
       </c>
       <c r="G7" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>

--- a/csv/ldaqda/ldaqda_pc15_perfs.xlsx
+++ b/csv/ldaqda/ldaqda_pc15_perfs.xlsx
@@ -114,16 +114,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.16203703703703703</v>
+        <v>0.17592592592592593</v>
       </c>
       <c r="C2" t="n">
-        <v>0.040887781788554844</v>
+        <v>0.07790994062208381</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.33796296296296297</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09582326839255743</v>
+        <v>0.05670115145331431</v>
       </c>
     </row>
   </sheetData>
@@ -191,7 +191,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -200,10 +200,10 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -220,10 +220,10 @@
         <v>30.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
@@ -240,13 +240,13 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
@@ -263,10 +263,10 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F6" t="n">
         <v>28.0</v>
@@ -337,7 +337,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -352,7 +352,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="3">
@@ -363,10 +363,10 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
@@ -383,22 +383,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -415,13 +415,13 @@
         <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
@@ -435,16 +435,16 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="F6" t="n">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -452,22 +452,22 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
         <v>1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G7" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>

--- a/csv/ldaqda/ldaqda_pc15_perfs.xlsx
+++ b/csv/ldaqda/ldaqda_pc15_perfs.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+  <si>
+    <t>filename</t>
+  </si>
   <si>
     <t>lda_tst_err</t>
   </si>
@@ -29,6 +32,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>pc15</t>
   </si>
   <si>
     <t>2</t>
@@ -108,22 +114,28 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.17592592592592593</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07790994062208381</v>
+        <v>0.19907407407407407</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33796296296296297</v>
+        <v>0.047844484010236346</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05670115145331431</v>
+        <v>0.375</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06273105439242341</v>
       </c>
     </row>
   </sheetData>
@@ -142,30 +154,30 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -180,27 +192,27 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -208,7 +220,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -217,10 +229,10 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
         <v>4.0</v>
@@ -231,7 +243,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -240,21 +252,21 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -266,10 +278,10 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F6" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -277,7 +289,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>7.0</v>
@@ -314,30 +326,30 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -346,30 +358,30 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="D3" t="n">
         <v>1.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -380,7 +392,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -389,10 +401,10 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
         <v>7.0</v>
@@ -403,7 +415,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -412,21 +424,21 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -435,13 +447,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E6" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
@@ -449,25 +461,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n">
         <v>1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G7" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>
